--- a/Files/userData.xlsx
+++ b/Files/userData.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asghar Nazir\IdeaProjects\JavaBatch9\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B305AE38-4060-47BC-8E36-D380D7CF72C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88498D54-11C8-4ACE-8248-C1A597BFE32C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EmpData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Asghar</t>
   </si>
@@ -53,12 +53,16 @@
   </si>
   <si>
     <t>kamran</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,12 +377,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -421,8 +425,8 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>25</v>
+      <c r="C4" t="n">
+        <v>40.0</v>
       </c>
     </row>
   </sheetData>
